--- a/EC/Train Runs and Enforcements 2016-07-14.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-14.xlsx
@@ -2499,28 +2499,7 @@
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2879,10 +2858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CM154"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3438,7 @@
       <c r="CL12" s="4"/>
       <c r="CM12" s="4"/>
     </row>
-    <row r="13" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>293</v>
       </c>
@@ -3571,7 +3551,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="14" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>307</v>
       </c>
@@ -3683,7 +3663,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="15" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>294</v>
       </c>
@@ -3796,7 +3776,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="16" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>308</v>
       </c>
@@ -3908,7 +3888,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>295</v>
       </c>
@@ -4020,7 +4000,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>305</v>
       </c>
@@ -4132,7 +4112,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>286</v>
       </c>
@@ -4244,7 +4224,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>298</v>
       </c>
@@ -4470,7 +4450,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>296</v>
       </c>
@@ -4582,7 +4562,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>296</v>
       </c>
@@ -4694,7 +4674,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>299</v>
       </c>
@@ -4806,7 +4786,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>306</v>
       </c>
@@ -4918,7 +4898,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>297</v>
       </c>
@@ -5030,7 +5010,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>300</v>
       </c>
@@ -5142,7 +5122,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>287</v>
       </c>
@@ -5254,7 +5234,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>288</v>
       </c>
@@ -5366,7 +5346,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>309</v>
       </c>
@@ -5478,7 +5458,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>311</v>
       </c>
@@ -5590,7 +5570,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>292</v>
       </c>
@@ -5702,7 +5682,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>290</v>
       </c>
@@ -5814,7 +5794,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>310</v>
       </c>
@@ -5926,7 +5906,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>289</v>
       </c>
@@ -6038,7 +6018,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>301</v>
       </c>
@@ -6150,7 +6130,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>313</v>
       </c>
@@ -6262,7 +6242,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>312</v>
       </c>
@@ -6374,7 +6354,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>291</v>
       </c>
@@ -6486,7 +6466,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>334</v>
       </c>
@@ -6598,7 +6578,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>302</v>
       </c>
@@ -6710,7 +6690,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>337</v>
       </c>
@@ -6822,7 +6802,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>303</v>
       </c>
@@ -6934,7 +6914,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>338</v>
       </c>
@@ -7046,7 +7026,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>304</v>
       </c>
@@ -7158,7 +7138,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>340</v>
       </c>
@@ -7270,7 +7250,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>341</v>
       </c>
@@ -7382,7 +7362,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>343</v>
       </c>
@@ -7494,7 +7474,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>344</v>
       </c>
@@ -7606,7 +7586,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>346</v>
       </c>
@@ -7831,7 +7811,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
         <v>349</v>
       </c>
@@ -7943,7 +7923,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>351</v>
       </c>
@@ -8055,7 +8035,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>352</v>
       </c>
@@ -8167,7 +8147,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>353</v>
       </c>
@@ -8279,7 +8259,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>355</v>
       </c>
@@ -8391,7 +8371,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>357</v>
       </c>
@@ -8503,7 +8483,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>358</v>
       </c>
@@ -8615,7 +8595,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
         <v>359</v>
       </c>
@@ -8727,7 +8707,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>361</v>
       </c>
@@ -8839,7 +8819,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>363</v>
       </c>
@@ -8951,7 +8931,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
         <v>365</v>
       </c>
@@ -9063,7 +9043,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
         <v>366</v>
       </c>
@@ -9175,7 +9155,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
         <v>367</v>
       </c>
@@ -9287,7 +9267,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
         <v>369</v>
       </c>
@@ -9399,7 +9379,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>370</v>
       </c>
@@ -9511,7 +9491,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>371</v>
       </c>
@@ -9623,7 +9603,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
         <v>371</v>
       </c>
@@ -9735,7 +9715,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
         <v>372</v>
       </c>
@@ -9847,7 +9827,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="70" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
         <v>372</v>
       </c>
@@ -9959,7 +9939,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>373</v>
       </c>
@@ -10071,7 +10051,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
         <v>375</v>
       </c>
@@ -10294,7 +10274,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
         <v>378</v>
       </c>
@@ -10406,7 +10386,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
         <v>380</v>
       </c>
@@ -10518,7 +10498,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
         <v>381</v>
       </c>
@@ -10630,7 +10610,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>382</v>
       </c>
@@ -10742,7 +10722,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>383</v>
       </c>
@@ -10854,7 +10834,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>385</v>
       </c>
@@ -10967,7 +10947,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
         <v>386</v>
       </c>
@@ -11079,7 +11059,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
         <v>388</v>
       </c>
@@ -11191,7 +11171,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>389</v>
       </c>
@@ -11303,7 +11283,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>391</v>
       </c>
@@ -11415,7 +11395,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
         <v>393</v>
       </c>
@@ -11527,7 +11507,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
         <v>395</v>
       </c>
@@ -11639,7 +11619,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
         <v>396</v>
       </c>
@@ -11865,7 +11845,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
         <v>398</v>
       </c>
@@ -11971,7 +11951,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49" t="s">
         <v>401</v>
       </c>
@@ -12083,7 +12063,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
         <v>402</v>
       </c>
@@ -12195,7 +12175,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
         <v>404</v>
       </c>
@@ -12307,7 +12287,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
         <v>405</v>
       </c>
@@ -12419,7 +12399,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
         <v>406</v>
       </c>
@@ -12530,7 +12510,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
         <v>408</v>
       </c>
@@ -12642,7 +12622,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49" t="s">
         <v>409</v>
       </c>
@@ -12868,7 +12848,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49" t="s">
         <v>410</v>
       </c>
@@ -12974,7 +12954,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>414</v>
       </c>
@@ -13085,7 +13065,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>416</v>
       </c>
@@ -13197,7 +13177,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
         <v>417</v>
       </c>
@@ -13309,7 +13289,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>418</v>
       </c>
@@ -13421,7 +13401,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
         <v>420</v>
       </c>
@@ -13533,7 +13513,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49" t="s">
         <v>422</v>
       </c>
@@ -13759,7 +13739,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>425</v>
       </c>
@@ -13871,7 +13851,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49" t="s">
         <v>426</v>
       </c>
@@ -13983,7 +13963,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49" t="s">
         <v>427</v>
       </c>
@@ -14095,7 +14075,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
         <v>429</v>
       </c>
@@ -14207,7 +14187,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49" t="s">
         <v>431</v>
       </c>
@@ -14319,7 +14299,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49" t="s">
         <v>432</v>
       </c>
@@ -14431,7 +14411,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49" t="s">
         <v>433</v>
       </c>
@@ -14543,7 +14523,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
         <v>434</v>
       </c>
@@ -14655,7 +14635,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>436</v>
       </c>
@@ -14767,7 +14747,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49" t="s">
         <v>438</v>
       </c>
@@ -14879,7 +14859,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49" t="s">
         <v>440</v>
       </c>
@@ -14991,7 +14971,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
         <v>441</v>
       </c>
@@ -15103,7 +15083,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49" t="s">
         <v>442</v>
       </c>
@@ -15215,7 +15195,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>443</v>
       </c>
@@ -15327,7 +15307,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>444</v>
       </c>
@@ -15439,7 +15419,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49" t="s">
         <v>445</v>
       </c>
@@ -15551,7 +15531,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49" t="s">
         <v>446</v>
       </c>
@@ -15663,7 +15643,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49" t="s">
         <v>447</v>
       </c>
@@ -15775,7 +15755,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49" t="s">
         <v>449</v>
       </c>
@@ -15887,7 +15867,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49" t="s">
         <v>450</v>
       </c>
@@ -15999,7 +15979,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49" t="s">
         <v>451</v>
       </c>
@@ -16111,7 +16091,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49" t="s">
         <v>452</v>
       </c>
@@ -16223,7 +16203,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
         <v>453</v>
       </c>
@@ -16335,7 +16315,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
         <v>455</v>
       </c>
@@ -16561,7 +16541,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="130" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49" t="s">
         <v>456</v>
       </c>
@@ -16781,7 +16761,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="132" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>462</v>
       </c>
@@ -16893,7 +16873,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="133" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
         <v>463</v>
       </c>
@@ -17005,7 +16985,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="134" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
         <v>464</v>
       </c>
@@ -17117,7 +17097,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="135" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49" t="s">
         <v>465</v>
       </c>
@@ -17229,7 +17209,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="136" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49" t="s">
         <v>467</v>
       </c>
@@ -17341,7 +17321,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="137" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49" t="s">
         <v>469</v>
       </c>
@@ -17453,7 +17433,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="138" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
         <v>470</v>
       </c>
@@ -17565,7 +17545,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="139" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
         <v>471</v>
       </c>
@@ -17677,7 +17657,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="140" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
         <v>472</v>
       </c>
@@ -17789,7 +17769,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="141" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
         <v>473</v>
       </c>
@@ -17901,7 +17881,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="142" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49" t="s">
         <v>475</v>
       </c>
@@ -18014,7 +17994,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="143" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49" t="s">
         <v>476</v>
       </c>
@@ -18126,7 +18106,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="144" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
         <v>477</v>
       </c>
@@ -18238,7 +18218,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="145" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49" t="s">
         <v>478</v>
       </c>
@@ -18350,7 +18330,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="146" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
         <v>479</v>
       </c>
@@ -18462,7 +18442,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="147" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49" t="s">
         <v>480</v>
       </c>
@@ -18574,7 +18554,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="148" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49" t="s">
         <v>481</v>
       </c>
@@ -18686,7 +18666,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="149" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
         <v>482</v>
       </c>
@@ -18798,7 +18778,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="150" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49" t="s">
         <v>483</v>
       </c>
@@ -18910,7 +18890,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="151" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
         <v>484</v>
       </c>
@@ -19022,7 +19002,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
         <v>485</v>
       </c>
@@ -19134,7 +19114,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49" t="s">
         <v>486</v>
       </c>
@@ -19246,7 +19226,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49" t="s">
         <v>487</v>
       </c>
@@ -19359,7 +19339,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A12:AD154"/>
+  <autoFilter ref="A12:AD154">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A13:AC160">
     <sortCondition ref="A13:A160"/>
     <sortCondition ref="F13:F160"/>
@@ -19371,27 +19357,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="11" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="10" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="9" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S154">
-    <cfRule type="expression" dxfId="8" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S154">
-    <cfRule type="expression" dxfId="7" priority="51">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19425,7 +19411,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19645,23 +19631,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 12:06:07-0600',mode:absolute,to:'2016-07-14 14:50:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R7" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S7&amp;"*"&amp;TEXT(A7-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A7-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="R7:R38" si="0">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S7&amp;"*"&amp;TEXT(A7-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A7-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160714*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f>MID(B7,13,4)</f>
+        <f t="shared" ref="S7:S38" si="1">MID(B7,13,4)</f>
         <v>4017</v>
       </c>
       <c r="T7" s="48">
-        <f>A7+6/24</f>
+        <f t="shared" ref="T7:T38" si="2">A7+6/24</f>
         <v>42565.818923611114</v>
       </c>
       <c r="U7" s="69" t="str">
-        <f>IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U7:U38" si="3">IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V7" s="69" t="str">
-        <f>IF(AND(E7="TRACK WARRANT AUTHORITY",G7&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" ref="V7:V38" si="4">IF(AND(E7="TRACK WARRANT AUTHORITY",G7&lt;10),"OMIT","KEEP")</f>
         <v>KEEP</v>
       </c>
     </row>
@@ -19719,23 +19705,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 13:23:58-0600',mode:absolute,to:'2016-07-14 16:12:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R8" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S8&amp;"*"&amp;TEXT(A8-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A8-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160714*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f>MID(B8,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4044</v>
       </c>
       <c r="T8" s="48">
-        <f>A8+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.862615740742</v>
       </c>
       <c r="U8" s="69" t="str">
-        <f>IF(VALUE(LEFT(C8,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V8" s="69" t="str">
-        <f>IF(AND(E8="TRACK WARRANT AUTHORITY",G8&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -19793,23 +19779,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 14:18:39-0600',mode:absolute,to:'2016-07-14 17:09:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R9" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S9&amp;"*"&amp;TEXT(A9-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A9-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160714*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f>MID(B9,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4043</v>
       </c>
       <c r="T9" s="48">
-        <f>A9+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.912766203706</v>
       </c>
       <c r="U9" s="69" t="str">
-        <f>IF(VALUE(LEFT(C9,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V9" s="69" t="str">
-        <f>IF(AND(E9="TRACK WARRANT AUTHORITY",G9&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -19867,23 +19853,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 13:53:17-0600',mode:absolute,to:'2016-07-14 16:39:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R10" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S10&amp;"*"&amp;TEXT(A10-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A10-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160714*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f>MID(B10,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4017</v>
       </c>
       <c r="T10" s="48">
-        <f>A10+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.889444444445</v>
       </c>
       <c r="U10" s="69" t="str">
-        <f>IF(VALUE(LEFT(C10,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V10" s="69" t="str">
-        <f>IF(AND(E10="TRACK WARRANT AUTHORITY",G10&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -19939,23 +19925,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 15:35:19-0600',mode:absolute,to:'2016-07-14 18:23:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R11" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S11&amp;"*"&amp;TEXT(A11-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A11-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160714*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>MID(B11,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4017</v>
       </c>
       <c r="T11" s="48">
-        <f>A11+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.971990740742</v>
       </c>
       <c r="U11" s="69" t="str">
-        <f>IF(VALUE(LEFT(C11,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V11" s="69" t="str">
-        <f>IF(AND(E11="TRACK WARRANT AUTHORITY",G11&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20011,23 +19997,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:53:36-0600',mode:absolute,to:'2016-07-14 11:33:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R12" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S12&amp;"*"&amp;TEXT(A12-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A12-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>MID(B12,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T12" s="48">
-        <f>A12+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.68644675926</v>
       </c>
       <c r="U12" s="69" t="str">
-        <f>IF(VALUE(LEFT(C12,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V12" s="69" t="str">
-        <f>IF(AND(E12="TRACK WARRANT AUTHORITY",G12&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20083,23 +20069,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 17:34:27-0600',mode:absolute,to:'2016-07-14 20:19:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R13" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S13&amp;"*"&amp;TEXT(A13-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A13-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160715*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f>MID(B13,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T13" s="48">
-        <f>A13+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.051458333335</v>
       </c>
       <c r="U13" s="69" t="str">
-        <f>IF(VALUE(LEFT(C13,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V13" s="69" t="str">
-        <f>IF(AND(E13="TRACK WARRANT AUTHORITY",G13&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20155,23 +20141,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 06:27:17-0600',mode:absolute,to:'2016-07-14 09:07:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R14" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S14&amp;"*"&amp;TEXT(A14-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A14-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160714*" /stext=" 13:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f>MID(B14,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4044</v>
       </c>
       <c r="T14" s="48">
-        <f>A14+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.566134259258</v>
       </c>
       <c r="U14" s="69" t="str">
-        <f>IF(VALUE(LEFT(C14,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V14" s="69" t="str">
-        <f>IF(AND(E14="TRACK WARRANT AUTHORITY",G14&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20227,23 +20213,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 04:39:33-0600',mode:absolute,to:'2016-07-14 07:17:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R15" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S15&amp;"*"&amp;TEXT(A15-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A15-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160714*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f>MID(B15,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
       <c r="T15" s="48">
-        <f>A15+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.507708333331</v>
       </c>
       <c r="U15" s="69" t="str">
-        <f>IF(VALUE(LEFT(C15,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V15" s="69" t="str">
-        <f>IF(AND(E15="TRACK WARRANT AUTHORITY",G15&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20299,23 +20285,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 07:04:17-0600',mode:absolute,to:'2016-07-14 09:48:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R16" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S16&amp;"*"&amp;TEXT(A16-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A16-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>MID(B16,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T16" s="48">
-        <f>A16+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.610729166663</v>
       </c>
       <c r="U16" s="69" t="str">
-        <f>IF(VALUE(LEFT(C16,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V16" s="69" t="str">
-        <f>IF(AND(E16="TRACK WARRANT AUTHORITY",G16&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20371,23 +20357,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 19:15:37-0600',mode:absolute,to:'2016-07-14 22:05:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R17" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S17&amp;"*"&amp;TEXT(A17-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A17-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160715*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>MID(B17,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T17" s="48">
-        <f>A17+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.121354166666</v>
       </c>
       <c r="U17" s="69" t="str">
-        <f>IF(VALUE(LEFT(C17,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V17" s="69" t="str">
-        <f>IF(AND(E17="TRACK WARRANT AUTHORITY",G17&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20443,23 +20429,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 19:15:37-0600',mode:absolute,to:'2016-07-14 22:05:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R18" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S18&amp;"*"&amp;TEXT(A18-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A18-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160715*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>MID(B18,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T18" s="48">
-        <f>A18+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.122013888889</v>
       </c>
       <c r="U18" s="69" t="str">
-        <f>IF(VALUE(LEFT(C18,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V18" s="69" t="str">
-        <f>IF(AND(E18="TRACK WARRANT AUTHORITY",G18&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20515,23 +20501,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 07:38:56-0600',mode:absolute,to:'2016-07-14 10:22:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R19" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S19&amp;"*"&amp;TEXT(A19-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A19-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160714*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>MID(B19,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4018</v>
       </c>
       <c r="T19" s="48">
-        <f>A19+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.634756944448</v>
       </c>
       <c r="U19" s="69" t="str">
-        <f>IF(VALUE(LEFT(C19,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V19" s="69" t="str">
-        <f>IF(AND(E19="TRACK WARRANT AUTHORITY",G19&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20587,23 +20573,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:08:20-0600',mode:absolute,to:'2016-07-14 10:48:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R20" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S20&amp;"*"&amp;TEXT(A20-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A20-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160714*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>MID(B20,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
       <c r="T20" s="48">
-        <f>A20+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.639652777776</v>
       </c>
       <c r="U20" s="69" t="str">
-        <f>IF(VALUE(LEFT(C20,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V20" s="69" t="str">
-        <f>IF(AND(E20="TRACK WARRANT AUTHORITY",G20&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20659,23 +20645,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 12:32:34-0600',mode:absolute,to:'2016-07-14 15:21:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R21" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S21&amp;"*"&amp;TEXT(A21-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A21-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160714*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>MID(B21,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4043</v>
       </c>
       <c r="T21" s="48">
-        <f>A21+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.822523148148</v>
       </c>
       <c r="U21" s="69" t="str">
-        <f>IF(VALUE(LEFT(C21,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V21" s="69" t="str">
-        <f>IF(AND(E21="TRACK WARRANT AUTHORITY",G21&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20731,23 +20717,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 13:05:47-0600',mode:absolute,to:'2016-07-14 15:38:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R22" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S22&amp;"*"&amp;TEXT(A22-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A22-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160714*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>MID(B22,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4018</v>
       </c>
       <c r="T22" s="48">
-        <f>A22+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.85869212963</v>
       </c>
       <c r="U22" s="69" t="str">
-        <f>IF(VALUE(LEFT(C22,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V22" s="69" t="str">
-        <f>IF(AND(E22="TRACK WARRANT AUTHORITY",G22&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20803,23 +20789,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 20:28:01-0600',mode:absolute,to:'2016-07-14 23:07:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R23" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S23&amp;"*"&amp;TEXT(A23-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A23-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160715*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>MID(B23,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4042</v>
       </c>
       <c r="T23" s="48">
-        <f>A23+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.170671296299</v>
       </c>
       <c r="U23" s="69" t="str">
-        <f>IF(VALUE(LEFT(C23,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V23" s="69" t="str">
-        <f>IF(AND(E23="TRACK WARRANT AUTHORITY",G23&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20875,23 +20861,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 04:56:43-0600',mode:absolute,to:'2016-07-14 07:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R24" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S24&amp;"*"&amp;TEXT(A24-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A24-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4038*20160714*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f>MID(B24,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4038</v>
       </c>
       <c r="T24" s="48">
-        <f>A24+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.525138888886</v>
       </c>
       <c r="U24" s="69" t="str">
-        <f>IF(VALUE(LEFT(C24,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V24" s="69" t="str">
-        <f>IF(AND(E24="TRACK WARRANT AUTHORITY",G24&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20947,23 +20933,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 16:01:53-0600',mode:absolute,to:'2016-07-14 18:51:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R25" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S25&amp;"*"&amp;TEXT(A25-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A25-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160714*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f>MID(B25,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4043</v>
       </c>
       <c r="T25" s="48">
-        <f>A25+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.967824074076</v>
       </c>
       <c r="U25" s="69" t="str">
-        <f>IF(VALUE(LEFT(C25,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V25" s="69" t="str">
-        <f>IF(AND(E25="TRACK WARRANT AUTHORITY",G25&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21021,23 +21007,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 13:01:29-0600',mode:absolute,to:'2016-07-14 15:57:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R26" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S26&amp;"*"&amp;TEXT(A26-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A26-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160714*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f>MID(B26,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4026</v>
       </c>
       <c r="T26" s="48">
-        <f>A26+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.841574074075</v>
       </c>
       <c r="U26" s="69" t="str">
-        <f>IF(VALUE(LEFT(C26,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V26" s="69" t="str">
-        <f>IF(AND(E26="TRACK WARRANT AUTHORITY",G26&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21095,23 +21081,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 17:05:42-0600',mode:absolute,to:'2016-07-14 19:47:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R27" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S27&amp;"*"&amp;TEXT(A27-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A27-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160715*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f>MID(B27,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
       <c r="T27" s="48">
-        <f>A27+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.008275462962</v>
       </c>
       <c r="U27" s="69" t="str">
-        <f>IF(VALUE(LEFT(C27,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V27" s="69" t="str">
-        <f>IF(AND(E27="TRACK WARRANT AUTHORITY",G27&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21169,23 +21155,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 17:05:42-0600',mode:absolute,to:'2016-07-14 19:47:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R28" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S28&amp;"*"&amp;TEXT(A28-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A28-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160715*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>MID(B28,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
       <c r="T28" s="48">
-        <f>A28+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.008958333332</v>
       </c>
       <c r="U28" s="69" t="str">
-        <f>IF(VALUE(LEFT(C28,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V28" s="69" t="str">
-        <f>IF(AND(E28="TRACK WARRANT AUTHORITY",G28&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21243,23 +21229,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 18:10:15-0600',mode:absolute,to:'2016-07-14 20:47:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R29" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S29&amp;"*"&amp;TEXT(A29-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A29-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160715*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f>MID(B29,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4039</v>
       </c>
       <c r="T29" s="48">
-        <f>A29+6/24</f>
+        <f t="shared" si="2"/>
         <v>42566.050034722219</v>
       </c>
       <c r="U29" s="69" t="str">
-        <f>IF(VALUE(LEFT(C29,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V29" s="69" t="str">
-        <f>IF(AND(E29="TRACK WARRANT AUTHORITY",G29&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21315,23 +21301,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 03:01:56-0600',mode:absolute,to:'2016-07-14 05:48:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R30" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S30&amp;"*"&amp;TEXT(A30-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A30-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160714*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f>MID(B30,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4017</v>
       </c>
       <c r="T30" s="48">
-        <f>A30+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.449930555558</v>
       </c>
       <c r="U30" s="69" t="str">
-        <f>IF(VALUE(LEFT(C30,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V30" s="69" t="str">
-        <f>IF(AND(E30="TRACK WARRANT AUTHORITY",G30&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21387,23 +21373,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 05:07:13-0600',mode:absolute,to:'2016-07-14 08:02:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R31" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S31&amp;"*"&amp;TEXT(A31-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A31-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160714*" /stext=" 13:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f>MID(B31,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T31" s="48">
-        <f>A31+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.543124999997</v>
       </c>
       <c r="U31" s="69" t="str">
-        <f>IF(VALUE(LEFT(C31,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V31" s="69" t="str">
-        <f>IF(AND(E31="TRACK WARRANT AUTHORITY",G31&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21459,23 +21445,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 05:53:44-0600',mode:absolute,to:'2016-07-14 08:33:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R32" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S32&amp;"*"&amp;TEXT(A32-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A32-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4037*20160714*" /stext=" 13:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f>MID(B32,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4037</v>
       </c>
       <c r="T32" s="48">
-        <f>A32+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.564791666664</v>
       </c>
       <c r="U32" s="69" t="str">
-        <f>IF(VALUE(LEFT(C32,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V32" s="69" t="str">
-        <f>IF(AND(E32="TRACK WARRANT AUTHORITY",G32&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21531,23 +21517,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 06:52:31-0600',mode:absolute,to:'2016-07-14 09:32:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R33" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S33&amp;"*"&amp;TEXT(A33-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A33-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f>MID(B33,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4017</v>
       </c>
       <c r="T33" s="48">
-        <f>A33+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.606030092589</v>
       </c>
       <c r="U33" s="69" t="str">
-        <f>IF(VALUE(LEFT(C33,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V33" s="69" t="str">
-        <f>IF(AND(E33="TRACK WARRANT AUTHORITY",G33&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21603,23 +21589,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 07:04:17-0600',mode:absolute,to:'2016-07-14 09:48:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R34" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S34&amp;"*"&amp;TEXT(A34-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A34-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f>MID(B34,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T34" s="48">
-        <f>A34+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.616851851853</v>
       </c>
       <c r="U34" s="69" t="str">
-        <f>IF(VALUE(LEFT(C34,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V34" s="69" t="str">
-        <f>IF(AND(E34="TRACK WARRANT AUTHORITY",G34&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21675,23 +21661,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:53:36-0600',mode:absolute,to:'2016-07-14 11:33:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R35" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S35&amp;"*"&amp;TEXT(A35-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A35-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f>MID(B35,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4041</v>
       </c>
       <c r="T35" s="48">
-        <f>A35+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.689872685187</v>
       </c>
       <c r="U35" s="69" t="str">
-        <f>IF(VALUE(LEFT(C35,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V35" s="69" t="str">
-        <f>IF(AND(E35="TRACK WARRANT AUTHORITY",G35&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21747,23 +21733,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 09:01:47-0600',mode:absolute,to:'2016-07-14 11:48:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R36" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S36&amp;"*"&amp;TEXT(A36-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A36-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f>MID(B36,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4043</v>
       </c>
       <c r="T36" s="48">
-        <f>A36+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.70045138889</v>
       </c>
       <c r="U36" s="69" t="str">
-        <f>IF(VALUE(LEFT(C36,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V36" s="69" t="str">
-        <f>IF(AND(E36="TRACK WARRANT AUTHORITY",G36&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21819,23 +21805,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 10:10:15-0600',mode:absolute,to:'2016-07-14 12:49:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R37" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S37&amp;"*"&amp;TEXT(A37-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A37-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160714*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f>MID(B37,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
       <c r="T37" s="48">
-        <f>A37+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.741898148146</v>
       </c>
       <c r="U37" s="69" t="str">
-        <f>IF(VALUE(LEFT(C37,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V37" s="69" t="str">
-        <f>IF(AND(E37="TRACK WARRANT AUTHORITY",G37&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21891,23 +21877,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 10:10:15-0600',mode:absolute,to:'2016-07-14 12:49:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R38" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S38&amp;"*"&amp;TEXT(A38-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A38-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="0"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160714*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f>MID(B38,13,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
       <c r="T38" s="48">
-        <f>A38+6/24</f>
+        <f t="shared" si="2"/>
         <v>42565.742407407408</v>
       </c>
       <c r="U38" s="69" t="str">
-        <f>IF(VALUE(LEFT(C38,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="V38" s="69" t="str">
-        <f>IF(AND(E38="TRACK WARRANT AUTHORITY",G38&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="4"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21963,23 +21949,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 11:29:59-0600',mode:absolute,to:'2016-07-14 14:18:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R39" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S39&amp;"*"&amp;TEXT(A39-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A39-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="R39:R70" si="5">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S39&amp;"*"&amp;TEXT(A39-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A39-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160714*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f>MID(B39,13,4)</f>
+        <f t="shared" ref="S39:S57" si="6">MID(B39,13,4)</f>
         <v>4032</v>
       </c>
       <c r="T39" s="48">
-        <f>A39+6/24</f>
+        <f t="shared" ref="T39:T57" si="7">A39+6/24</f>
         <v>42565.804143518515</v>
       </c>
       <c r="U39" s="69" t="str">
-        <f>IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U39:U57" si="8">IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V39" s="69" t="str">
-        <f>IF(AND(E39="TRACK WARRANT AUTHORITY",G39&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" ref="V39:V57" si="9">IF(AND(E39="TRACK WARRANT AUTHORITY",G39&lt;10),"OMIT","KEEP")</f>
         <v>OMIT</v>
       </c>
     </row>
@@ -22035,23 +22021,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 16:36:15-0600',mode:absolute,to:'2016-07-14 19:17:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R40" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S40&amp;"*"&amp;TEXT(A40-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A40-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160715*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f>MID(B40,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4026</v>
       </c>
       <c r="T40" s="48">
-        <f>A40+6/24</f>
+        <f t="shared" si="7"/>
         <v>42566.012326388889</v>
       </c>
       <c r="U40" s="69" t="str">
-        <f>IF(VALUE(LEFT(C40,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V40" s="69" t="str">
-        <f>IF(AND(E40="TRACK WARRANT AUTHORITY",G40&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22107,23 +22093,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 22:49:35-0600',mode:absolute,to:'2016-07-15 01:34:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R41" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S41&amp;"*"&amp;TEXT(A41-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A41-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160715*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f>MID(B41,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4019</v>
       </c>
       <c r="T41" s="48">
-        <f>A41+6/24</f>
+        <f t="shared" si="7"/>
         <v>42566.273298611108</v>
       </c>
       <c r="U41" s="69" t="str">
-        <f>IF(VALUE(LEFT(C41,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V41" s="69" t="str">
-        <f>IF(AND(E41="TRACK WARRANT AUTHORITY",G41&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22179,23 +22165,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 23:21:50-0600',mode:absolute,to:'2016-07-15 02:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R42" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S42&amp;"*"&amp;TEXT(A42-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A42-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160715*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f>MID(B42,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4041</v>
       </c>
       <c r="T42" s="48">
-        <f>A42+6/24</f>
+        <f t="shared" si="7"/>
         <v>42566.294548611113</v>
       </c>
       <c r="U42" s="69" t="str">
-        <f>IF(VALUE(LEFT(C42,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V42" s="69" t="str">
-        <f>IF(AND(E42="TRACK WARRANT AUTHORITY",G42&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22251,23 +22237,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 03:13:49-0600',mode:absolute,to:'2016-07-14 05:53:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R43" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S43&amp;"*"&amp;TEXT(A43-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A43-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4038*20160714*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f>MID(B43,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4038</v>
       </c>
       <c r="T43" s="48">
-        <f>A43+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.453472222223</v>
       </c>
       <c r="U43" s="69" t="str">
-        <f>IF(VALUE(LEFT(C43,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V43" s="69" t="str">
-        <f>IF(AND(E43="TRACK WARRANT AUTHORITY",G43&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22323,23 +22309,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 03:50:29-0600',mode:absolute,to:'2016-07-14 06:22:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R44" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S44&amp;"*"&amp;TEXT(A44-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A44-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160714*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f>MID(B44,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4040</v>
       </c>
       <c r="T44" s="48">
-        <f>A44+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.47351851852</v>
       </c>
       <c r="U44" s="69" t="str">
-        <f>IF(VALUE(LEFT(C44,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V44" s="69" t="str">
-        <f>IF(AND(E44="TRACK WARRANT AUTHORITY",G44&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22395,23 +22381,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 05:09:47-0600',mode:absolute,to:'2016-07-14 07:50:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R45" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S45&amp;"*"&amp;TEXT(A45-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A45-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160714*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f>MID(B45,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4025</v>
       </c>
       <c r="T45" s="48">
-        <f>A45+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.535069444442</v>
       </c>
       <c r="U45" s="69" t="str">
-        <f>IF(VALUE(LEFT(C45,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V45" s="69" t="str">
-        <f>IF(AND(E45="TRACK WARRANT AUTHORITY",G45&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22467,23 +22453,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 05:53:46-0600',mode:absolute,to:'2016-07-14 08:35:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R46" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S46&amp;"*"&amp;TEXT(A46-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A46-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160714*" /stext=" 13:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f>MID(B46,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4018</v>
       </c>
       <c r="T46" s="48">
-        <f>A46+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.566203703704</v>
       </c>
       <c r="U46" s="69" t="str">
-        <f>IF(VALUE(LEFT(C46,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V46" s="69" t="str">
-        <f>IF(AND(E46="TRACK WARRANT AUTHORITY",G46&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22539,23 +22525,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 06:27:17-0600',mode:absolute,to:'2016-07-14 09:07:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R47" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S47&amp;"*"&amp;TEXT(A47-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A47-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f>MID(B47,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4044</v>
       </c>
       <c r="T47" s="48">
-        <f>A47+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.588240740741</v>
       </c>
       <c r="U47" s="69" t="str">
-        <f>IF(VALUE(LEFT(C47,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V47" s="69" t="str">
-        <f>IF(AND(E47="TRACK WARRANT AUTHORITY",G47&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22611,23 +22597,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 06:56:00-0600',mode:absolute,to:'2016-07-14 09:35:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R48" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S48&amp;"*"&amp;TEXT(A48-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A48-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f>MID(B48,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4025</v>
       </c>
       <c r="T48" s="48">
-        <f>A48+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.608124999999</v>
       </c>
       <c r="U48" s="69" t="str">
-        <f>IF(VALUE(LEFT(C48,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V48" s="69" t="str">
-        <f>IF(AND(E48="TRACK WARRANT AUTHORITY",G48&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22683,23 +22669,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 07:13:16-0600',mode:absolute,to:'2016-07-14 09:50:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R49" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S49&amp;"*"&amp;TEXT(A49-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A49-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160714*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f>MID(B49,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4040</v>
       </c>
       <c r="T49" s="48">
-        <f>A49+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.618032407408</v>
       </c>
       <c r="U49" s="69" t="str">
-        <f>IF(VALUE(LEFT(C49,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V49" s="69" t="str">
-        <f>IF(AND(E49="TRACK WARRANT AUTHORITY",G49&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22755,23 +22741,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 07:49:59-0600',mode:absolute,to:'2016-07-14 10:35:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R50" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S50&amp;"*"&amp;TEXT(A50-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A50-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160714*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f>MID(B50,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4042</v>
       </c>
       <c r="T50" s="48">
-        <f>A50+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.649756944447</v>
       </c>
       <c r="U50" s="69" t="str">
-        <f>IF(VALUE(LEFT(C50,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V50" s="69" t="str">
-        <f>IF(AND(E50="TRACK WARRANT AUTHORITY",G50&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22827,23 +22813,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:26:03-0600',mode:absolute,to:'2016-07-14 11:06:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R51" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S51&amp;"*"&amp;TEXT(A51-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A51-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4038*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f>MID(B51,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4038</v>
       </c>
       <c r="T51" s="48">
-        <f>A51+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.670810185184</v>
       </c>
       <c r="U51" s="69" t="str">
-        <f>IF(VALUE(LEFT(C51,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V51" s="69" t="str">
-        <f>IF(AND(E51="TRACK WARRANT AUTHORITY",G51&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22899,23 +22885,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:40:23-0600',mode:absolute,to:'2016-07-14 11:20:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R52" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S52&amp;"*"&amp;TEXT(A52-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A52-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f>MID(B52,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4025</v>
       </c>
       <c r="T52" s="48">
-        <f>A52+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.681018518517</v>
       </c>
       <c r="U52" s="69" t="str">
-        <f>IF(VALUE(LEFT(C52,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V52" s="69" t="str">
-        <f>IF(AND(E52="TRACK WARRANT AUTHORITY",G52&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22971,23 +22957,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 08:58:37-0600',mode:absolute,to:'2016-07-14 11:35:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R53" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S53&amp;"*"&amp;TEXT(A53-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A53-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160714*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f>MID(B53,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4040</v>
       </c>
       <c r="T53" s="48">
-        <f>A53+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.691469907404</v>
       </c>
       <c r="U53" s="69" t="str">
-        <f>IF(VALUE(LEFT(C53,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V53" s="69" t="str">
-        <f>IF(AND(E53="TRACK WARRANT AUTHORITY",G53&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23043,23 +23029,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 10:33:42-0600',mode:absolute,to:'2016-07-14 13:20:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R54" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S54&amp;"*"&amp;TEXT(A54-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A54-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160714*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f>MID(B54,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4031</v>
       </c>
       <c r="T54" s="48">
-        <f>A54+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.76421296296</v>
       </c>
       <c r="U54" s="69" t="str">
-        <f>IF(VALUE(LEFT(C54,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V54" s="69" t="str">
-        <f>IF(AND(E54="TRACK WARRANT AUTHORITY",G54&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23115,23 +23101,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 11:50:37-0600',mode:absolute,to:'2016-07-14 14:35:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R55" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S55&amp;"*"&amp;TEXT(A55-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A55-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4038*20160714*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f>MID(B55,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4038</v>
       </c>
       <c r="T55" s="48">
-        <f>A55+6/24</f>
+        <f t="shared" si="7"/>
         <v>42565.81653935185</v>
       </c>
       <c r="U55" s="69" t="str">
-        <f>IF(VALUE(LEFT(C55,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V55" s="69" t="str">
-        <f>IF(AND(E55="TRACK WARRANT AUTHORITY",G55&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23187,23 +23173,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 17:23:27-0600',mode:absolute,to:'2016-07-14 20:06:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R56" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S56&amp;"*"&amp;TEXT(A56-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A56-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160715*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f>MID(B56,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4025</v>
       </c>
       <c r="T56" s="48">
-        <f>A56+6/24</f>
+        <f t="shared" si="7"/>
         <v>42566.045937499999</v>
       </c>
       <c r="U56" s="69" t="str">
-        <f>IF(VALUE(LEFT(C56,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V56" s="69" t="str">
-        <f>IF(AND(E56="TRACK WARRANT AUTHORITY",G56&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23259,23 +23245,23 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 21:18:01-0600',mode:absolute,to:'2016-07-15 00:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R57" s="71" t="str">
-        <f>astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S57&amp;"*"&amp;TEXT(A57-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A57-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" si="5"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4025*20160715*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f>MID(B57,13,4)</f>
+        <f t="shared" si="6"/>
         <v>4025</v>
       </c>
       <c r="T57" s="48">
-        <f>A57+6/24</f>
+        <f t="shared" si="7"/>
         <v>42566.212777777779</v>
       </c>
       <c r="U57" s="69" t="str">
-        <f>IF(VALUE(LEFT(C57,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="V57" s="69" t="str">
-        <f>IF(AND(E57="TRACK WARRANT AUTHORITY",G57&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" si="9"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23298,17 +23284,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N57">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-07-14.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2861,8 +2861,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:CM154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,6 +3278,10 @@
       <c r="N11" s="114"/>
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
+      <c r="S11" s="25">
+        <f>AVERAGE(S21:S157)</f>
+        <v>0.98091603053435117</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
@@ -19410,7 +19414,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -21949,7 +21953,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-14 11:29:59-0600',mode:absolute,to:'2016-07-14 14:18:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R39" s="71" t="str">
-        <f t="shared" ref="R39:R70" si="5">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S39&amp;"*"&amp;TEXT(A39-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A39-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="R39:R57" si="5">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;S39&amp;"*"&amp;TEXT(A39-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(A39-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160714*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S39" s="9" t="str">
